--- a/최종발표/20.SQL질의.xlsx
+++ b/최종발표/20.SQL질의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826ED7CC-B852-4430-8377-C43430EF3D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD57DB-F6E0-4FC1-9992-99E2C4704755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9768" yWindow="4152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TableSpace 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,34 @@
   </si>
   <si>
     <t>Query 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLESPACE DEJH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAFILE 'C:/OracleDB/DEJH.dbf'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE 5M;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE USER cinema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTIFIED BY 1q2w3e4r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT TABLESPACE DEJH;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRANT connect, resource, dba TO cinema;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,14 +231,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,16 +540,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="70.58203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="70.59765625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -529,9 +557,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -545,42 +608,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE9451-A53C-411A-AD38-F816FE9D4A3C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9"/>
@@ -601,7 +664,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -626,7 +689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,7 +704,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -654,7 +717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/최종발표/20.SQL질의.xlsx
+++ b/최종발표/20.SQL질의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD57DB-F6E0-4FC1-9992-99E2C4704755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B009D22-5143-4A69-B5A7-9A99482E0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9768" yWindow="4152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="INSERT" sheetId="4" r:id="rId4"/>
     <sheet name="SQL" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>TableSpace 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,29 @@
   <si>
     <t>GRANT connect, resource, dba TO cinema;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE MOVIE (
+    MVNO CHAR(7) NOT NULL,                  -- 식별문자 (MVXXXXX)        
+    MVNAME VARCHAR2(40) UNIQUE NOT NULL,    -- 제목
+    MVRELEASEDATE DATE NOT NULL,            -- 개봉일
+    MVDIRECTOR VARCHAR2(20) NOT NULL,       -- 감독
+    MVCLASS NUMBER(2) NOT NULL,             -- 시청등급
+    MVRUNTIME NUMBER(3) NOT NULL,           -- 상영시간 (단위 : MIN)
+    MVGENRE VARCHAR2(10) NOT NULL,          -- 장르
+    MVSTORY NVARCHAR2(1000),                -- 줄거리
+    MVPREVIEW BLOB,                         -- 예고편
+    MVPOST BLOB,                            -- 포스터
+    PRIMARY KEY(MVNO)
+);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table MOVIE이(가) 생성되었습니다.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +282,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,14 +586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="70.59765625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="70.58203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -606,19 +650,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE9451-A53C-411A-AD38-F816FE9D4A3C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="10.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -629,7 +673,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
@@ -646,7 +690,9 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
@@ -658,20 +704,69 @@
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="250" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A5:D5"/>
@@ -680,6 +775,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -689,7 +785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -704,7 +800,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -717,7 +813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/최종발표/20.SQL질의.xlsx
+++ b/최종발표/20.SQL질의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B009D22-5143-4A69-B5A7-9A99482E0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE131C3-EF3D-496D-A37F-197AEA8B061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,27 +91,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOVIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE MOVIE (
-    MVNO CHAR(7) NOT NULL,                  -- 식별문자 (MVXXXXX)        
-    MVNAME VARCHAR2(40) UNIQUE NOT NULL,    -- 제목
-    MVRELEASEDATE DATE NOT NULL,            -- 개봉일
-    MVDIRECTOR VARCHAR2(20) NOT NULL,       -- 감독
-    MVCLASS NUMBER(2) NOT NULL,             -- 시청등급
-    MVRUNTIME NUMBER(3) NOT NULL,           -- 상영시간 (단위 : MIN)
-    MVGENRE VARCHAR2(10) NOT NULL,          -- 장르
-    MVSTORY NVARCHAR2(1000),                -- 줄거리
-    MVPREVIEW BLOB,                         -- 예고편
-    MVPOST BLOB,                            -- 포스터
-    PRIMARY KEY(MVNO)
+    <t>CREATE TABLE LOCAL (
+    LOCALNO CHAR(7) NOT NULL,               -- 식별문자
+    LOCALNAME VARCHAR2(20) UNIQUE NOT NULL, -- 이름
+    PRIMARY KEY(LOCALNO)
 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table MOVIE이(가) 생성되었습니다.</t>
+    <t>LOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL이(가) 생성되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -259,7 +252,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,7 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,10 +583,10 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="70.58203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="70.59765625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -652,28 +645,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE9451-A53C-411A-AD38-F816FE9D4A3C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
@@ -691,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -704,15 +697,15 @@
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="250" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
@@ -720,7 +713,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>3</v>
@@ -755,7 +748,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -785,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,7 +793,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,7 +806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/최종발표/20.SQL질의.xlsx
+++ b/최종발표/20.SQL질의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE131C3-EF3D-496D-A37F-197AEA8B061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0483B13-AD3C-4B04-ABF8-42AF527B0D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>TableSpace 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,19 +91,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE LOCAL (
-    LOCALNO CHAR(7) NOT NULL,               -- 식별문자
-    LOCALNAME VARCHAR2(20) UNIQUE NOT NULL, -- 이름
-    PRIMARY KEY(LOCALNO)
-);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCAL이(가) 생성되었습니다.</t>
+    <t>MOVIEGOERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table "MOVIE"이(가) 삭제되었습니다.
+Table "MOVIESCHEDULE_INFO"이(가) 삭제되었습니다.
+Table "MOVIE_INFO"이(가) 삭제되었습니다.
+Table "ACTOR_INFO"이(가) 삭제되었습니다.
+Table "VERIFICATION"이(가) 삭제되었습니다.
+Table "USERS"이(가) 삭제되었습니다.
+Table "NONMEMBERS_INFO"이(가) 삭제되었습니다.
+Table "MEMBERS_INFO"이(가) 삭제되었습니다.
+Table "MANAGERS_INFO"이(가) 삭제되었습니다.
+Table "LOCAL"이(가) 삭제되었습니다.
+Table "CINEMA"이(가) 삭제되었습니다.
+Table "SCREENWAY"이(가) 삭제되었습니다.
+Table "THEATER"이(가) 삭제되었습니다.
+Table "SCHEDULE"이(가) 삭제되었습니다.
+Table "SEAT"이(가) 삭제되었습니다.
+Table "MOVIEGOERS"이(가) 삭제되었습니다.
+Table "BOOKING"이(가) 삭제되었습니다.
+Table "BOOKSEAT_INFO"이(가) 삭제되었습니다.
+Table "PAYWAY"이(가) 삭제되었습니다.
+Table "CREDITCARD_INFO"이(가) 삭제되었습니다.
+Table "DEPOSIT_INFO"이(가) 삭제되었습니다.
+Table "ONLINEPAY_INFO"이(가) 삭제되었습니다.
+Table "PAYING"이(가) 삭제되었습니다.
+Table "PAYLIST_INFO"이(가) 삭제되었습니다.
+Table "POINT"이(가) 삭제되었습니다.
+Table "POINTLIST_INFO"이(가) 삭제되었습니다.
+View RECEIPT이(가) 삭제되었습니다.
+View TICKET이(가) 삭제되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE "MOVIE" CASCADE CONSTRAINTS;
+DROP TABLE "MOVIESCHEDULE_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "MOVIE_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "ACTOR_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "VERIFICATION" CASCADE CONSTRAINTS;
+DROP TABLE "USERS" CASCADE CONSTRAINTS;
+DROP TABLE "NONMEMBERS_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "MEMBERS_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "MANAGERS_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "LOCAL" CASCADE CONSTRAINTS;
+DROP TABLE "CINEMA" CASCADE CONSTRAINTS;
+DROP TABLE "SCREENWAY" CASCADE CONSTRAINTS;
+DROP TABLE "THEATER" CASCADE CONSTRAINTS;
+DROP TABLE "SCHEDULE" CASCADE CONSTRAINTS;
+DROP TABLE "SEAT" CASCADE CONSTRAINTS;
+DROP TABLE "MOVIEGOERS" CASCADE CONSTRAINTS;
+DROP TABLE "BOOKING" CASCADE CONSTRAINTS;
+DROP TABLE "BOOKSEAT_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "BESTGENRE_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "PAYWAY" CASCADE CONSTRAINTS;
+DROP TABLE "CREDITCARD_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "DEPOSIT_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "ONLINEPAY_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "PAYING" CASCADE CONSTRAINTS;
+DROP TABLE "PAYLIST_INFO" CASCADE CONSTRAINTS;
+DROP TABLE "POINT" CASCADE CONSTRAINTS;
+DROP TABLE "POINTLIST_INFO" CASCADE CONSTRAINTS;
+DROP VIEW RECEIPT;
+DROP VIEW TICKET;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- 관객방식 도메인
+-- INSERT INTO MOVIEGOERS VALUES(식별문자, 관객방식, 할인율);
+INSERT INTO MOVIEGOERS VALUES('GOERS01', '일반', 1.0);
+INSERT INTO MOVIEGOERS VALUES('GOERS02', '청소년', 0.8);
+INSERT INTO MOVIEGOERS VALUES('GOERS03', '경로', 0.6);
+INSERT INTO MOVIEGOERS VALUES('GOERS04', '우대', 0.4);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,38 +328,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE9451-A53C-411A-AD38-F816FE9D4A3C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -659,12 +732,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -684,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -697,74 +770,96 @@
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    <row r="6" spans="1:4" ht="93.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+    <row r="13" spans="1:4" ht="409.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="187.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="409.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="A13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,7 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EDF07F-0290-403E-9A79-A2ED408DEE59}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
